--- a/3-能力管理/运行记录类文件/YNTD-ITSS-0306-2025年1-10月运维服务能力改进计划及跟踪.xlsx
+++ b/3-能力管理/运行记录类文件/YNTD-ITSS-0306-2025年1-10月运维服务能力改进计划及跟踪.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>2025年1-10月运维服务能力改进计划及跟踪</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>改进结果跟踪</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>待改进过程/活动</t>
@@ -687,7 +684,7 @@
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,10 +699,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1063,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1079,11 +1072,10 @@
     <col min="7" max="7" width="13.6296296296296" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="10.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="7.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" customHeight="1" spans="1:11">
+    <row r="1" ht="41.25" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,9 +1088,8 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="26.25" customHeight="1" spans="1:11">
+    <row r="2" ht="26.25" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1117,142 +1108,138 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" ht="26.25" customHeight="1" spans="1:11">
+    <row r="3" ht="26.25" customHeight="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="130" customHeight="1" spans="1:11">
+    <row r="4" ht="130" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+    </row>
+    <row r="5" ht="28.8" spans="1:10">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" ht="28.8" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    <row r="6" ht="86.4" spans="1:10">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="86.4" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="5"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape"/>
